--- a/file.xlsx
+++ b/file.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
@@ -439,49 +439,59 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Category manager</t>
+          <t>Category manager First name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Contract owner</t>
+          <t>Category manager Last name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Lawyer</t>
+          <t>Category manager Email</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Project owner</t>
+          <t>Created date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Creation date</t>
+          <t>Effective date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Effective date</t>
+          <t>Expiration date</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Expiration date</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>Service Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Service Frequency</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Service Must increase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qq</t>
+          <t>Contract - 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,22 +501,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Khasan</t>
+          <t>Kamalov</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Khasan</t>
+          <t>info.kamalov@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Khasan</t>
+          <t>12/31/2022, 15:27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12/31/2022, 15:27</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -514,58 +524,72 @@
           <t>12/31/2022</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>12/31/2022</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>qqqqqq</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Contract - 2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Khasan</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Khasan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Khasan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Khasan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Kamalov</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>info.kamalov@gmail.com</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>12/31/2022, 15:29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12/31/2022</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>12/31/2022</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="S3" t="n">
         <v>12</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Servie 1</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Servie 2</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
@@ -529,67 +529,234 @@
       </c>
     </row>
     <row r="3">
-      <c r="L3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Contract - 2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Khasan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Kamalov</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>info.kamalov@gmail.com</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12/31/2022, 15:29</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>12/31/2022</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>12/31/2022</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Servie 1</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="b">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="T4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Servie 2</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="J4" t="n">
         <v>10</v>
       </c>
-      <c r="V4" t="b">
+      <c r="K4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Contract 3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Khasan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kamalov</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>info.kamalov@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03/23/2023, 18:21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>03/23/2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>03/23/2023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Servie 1</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Servie 2</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Servie 3</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1212121</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Servie 3</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1212121</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Contract 4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Khasan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kamalov</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>info.kamalov@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03/23/2023, 18:48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>03/23/2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>03/23/2023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Servie 1</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Servie 2</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Servie 3</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1212121</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
